--- a/Command.xlsx
+++ b/Command.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NextwaveIndustries\liteVNA\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C46530D-D6B0-4F4F-85A8-5C9DF9CF7D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F628C8F3-6536-4460-A4D7-660F9759CF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="1860" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VNA" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="111">
   <si>
     <t xml:space="preserve">Bytes </t>
   </si>
@@ -157,12 +157,6 @@
     <t>00000040 00000000 10417dfa e0b35eea da4ffff1 72500007 8000 000000000e1</t>
   </si>
   <si>
-    <t xml:space="preserve">READ </t>
-  </si>
-  <si>
-    <t>Read a 1-byte register at address AA. Reply is one byte, the read value.</t>
-  </si>
-  <si>
     <t>u</t>
   </si>
   <si>
@@ -193,9 +187,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>00</t>
   </si>
   <si>
@@ -211,24 +202,12 @@
     <t>Start scan and read Data S11, S21</t>
   </si>
   <si>
-    <t xml:space="preserve">The MCU processés the  Angle and return  scan signal to the Gui implement Scan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Gui send active Mode to The MCU perform processing  </t>
-  </si>
-  <si>
     <t>VD</t>
   </si>
   <si>
     <t>Set point (8byte)</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>1 (auto) or 0(Simple)</t>
-  </si>
-  <si>
     <t>1(clockwise) or 0 (counter clock wise)</t>
   </si>
   <si>
@@ -241,9 +220,6 @@
     <t>Set point (8 bytes)</t>
   </si>
   <si>
-    <t>Time step (8 bytes)</t>
-  </si>
-  <si>
     <t>Kp (8 bytes)</t>
   </si>
   <si>
@@ -259,17 +235,199 @@
     <t xml:space="preserve"> Command 1 byte</t>
   </si>
   <si>
-    <t>Mode (8 bytes)</t>
-  </si>
-  <si>
     <t>rotation direction (8 byte)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initial Angle value </t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>hardwareRevision</t>
+  </si>
+  <si>
+    <t>Hardware revision.</t>
+  </si>
+  <si>
+    <t>Firmware major version.</t>
+  </si>
+  <si>
+    <t>firmwareMajor</t>
+  </si>
+  <si>
+    <t>firmwareMinor</t>
+  </si>
+  <si>
+    <t>Firmware minor version</t>
+  </si>
+  <si>
+    <t>CONNECTED</t>
+  </si>
+  <si>
+    <t>SETTING SCANS PARAMETER</t>
+  </si>
+  <si>
+    <t>number point</t>
+  </si>
+  <si>
+    <t>Sets the number of sweep frequency points. uint16.</t>
+  </si>
+  <si>
+    <t>(m_freq_stop_Hz - m_freq_start_Hz)/ numberpoint</t>
+  </si>
+  <si>
+    <t>Writing 1 switches USB data format to raw samples mode and leaves this protocol.</t>
+  </si>
+  <si>
+    <t>Sets the sweep start frequency in Hz. uint64.</t>
+  </si>
+  <si>
+    <t>sweepStartHz</t>
+  </si>
+  <si>
+    <t>sweepStepHz</t>
+  </si>
+  <si>
+    <t>sweepPoints</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 00 00 00 00 00 00 00 00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20 26 03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 23 00 00 46 C3 23 00 00 00 00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23 10 00 09 3D 00 00 00 00 00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>21 20 65 00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 21 22 01 00 : 101 POINT</t>
+    </r>
+  </si>
+  <si>
+    <t>Sets the sweep step frequency in Hz. uint64</t>
+  </si>
+  <si>
+    <t>clear FIFO buffer</t>
+  </si>
+  <si>
+    <t>start frequency</t>
+  </si>
+  <si>
+    <t>Sets the number of data points to output for each frequency. uint16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valuesPerFrequency </t>
+  </si>
+  <si>
+    <t>231000093D0000000000</t>
+  </si>
+  <si>
+    <t>0000000000000000</t>
+  </si>
+  <si>
+    <t>23 00 00 46 C3 23 00 00 00 00</t>
+  </si>
+  <si>
+    <t>00000040 00000000 57CB0200 F4A13A01 00CECDF0 00BB9E3F 2300 0000000000CD</t>
+  </si>
+  <si>
+    <t>000000400000000018AB210078254101E07B70F2804F23402400000000000015</t>
+  </si>
+  <si>
+    <t>23 00 00 E1 F5 05 00 00 00 00</t>
+  </si>
+  <si>
+    <t>23 10 80 8D 5B 00 00 00 00 00</t>
+  </si>
+  <si>
+    <t>21 20 65 00</t>
+  </si>
+  <si>
+    <t>21 22 01 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Gui send Angle,  </t>
+  </si>
+  <si>
+    <t>MCU recieved Angel, turn Angle, return signal finalize turn</t>
+  </si>
+  <si>
+    <t>send_Trigger_Scan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,8 +440,44 @@
       <color rgb="FF000000"/>
       <name val="ArialMT"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,8 +502,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -347,26 +553,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -374,6 +629,60 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,257 +963,468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
-    <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="74.85546875" customWidth="1"/>
+    <col min="1" max="1" width="77.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="8" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="8"/>
+    <col min="7" max="7" width="26.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="74.85546875" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45.75" thickBot="1">
-      <c r="A13" s="1">
+      <c r="A13" s="10">
         <v>18</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A14" s="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="11">
+        <v>18</v>
+      </c>
+      <c r="B16" s="11">
+        <v>30</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A18" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A20" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>30</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" t="s">
-        <v>57</v>
+      <c r="B20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A21" s="11">
+        <v>10</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A22" s="11">
+        <v>10</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8">
+        <v>11</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="20">
+        <v>202603</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="17">
+        <v>21206500</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="19">
+        <v>21220100</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A18:H18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB013AB-9DF4-4C10-A41B-8363811DE585}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -914,189 +1434,191 @@
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="31.140625" customWidth="1"/>
     <col min="5" max="5" width="42.28515625" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="8" t="s">
+      <c r="D10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4"/>
+      <c r="B12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5"/>
+      <c r="B15" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="C16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="G4" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="D16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="9"/>
-      <c r="B14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="B15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>